--- a/Databases/chinese_words.xlsx
+++ b/Databases/chinese_words.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer-1\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C074A2B-A6CC-4DB0-96C8-E6BDE56B521D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F9C690-F274-44A5-844A-933322C17001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19515" yWindow="6630" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7665" yWindow="7620" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -29,6 +29,67 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>餐饮</t>
+  </si>
+  <si>
+    <t>推行</t>
+  </si>
+  <si>
+    <t>引发</t>
+  </si>
+  <si>
+    <t>热议</t>
+  </si>
+  <si>
+    <t>声明</t>
+  </si>
+  <si>
+    <t>主席</t>
+  </si>
+  <si>
+    <t>舌尖</t>
+  </si>
+  <si>
+    <t>光盘行动</t>
+  </si>
+  <si>
+    <t>倡议</t>
+  </si>
+  <si>
+    <t>1.) n. catering;
+ food and drink</t>
+  </si>
+  <si>
+    <t>1.) v. Implement</t>
+  </si>
+  <si>
+    <t>1.) v. to lead to, to trigger, to initiate, to cause, to evoke</t>
+  </si>
+  <si>
+    <t>1.) n. heated debate, heated discussion</t>
+  </si>
+  <si>
+    <t>1.) v. to state, to declare
+2.) n. statement, declaration</t>
+  </si>
+  <si>
+    <t>1.) n. chairman, chairwoman</t>
+  </si>
+  <si>
+    <t>1.) the tip of the tongue;
+ point；apex；apex linguae</t>
+  </si>
+  <si>
+    <t>Clean Your Plate Campaign, Clean Plate Campaign, Empty Plate Campaign</t>
+  </si>
+  <si>
+    <t>1.) v. to suggest, to initiate, to propose
+2.) n. proposal, suggestion, initiative</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
   </si>
 </sst>
 </file>
@@ -430,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A2:C5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +510,105 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Databases/chinese_words.xlsx
+++ b/Databases/chinese_words.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F9C690-F274-44A5-844A-933322C17001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="7620" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -95,8 +89,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,14 +153,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -213,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,27 +231,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,24 +265,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,16 +440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -521,7 +469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -532,7 +480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -543,7 +491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -554,7 +502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -565,7 +513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -576,7 +524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -587,7 +535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -598,7 +546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
